--- a/src/main/resources/templates/excel/project.xlsx
+++ b/src/main/resources/templates/excel/project.xlsx
@@ -154,10 +154,10 @@
     <t>{.engineerCost}</t>
   </si>
   <si>
-    <t>{.unplanTime}</t>
-  </si>
-  <si>
     <t>{.planTime}</t>
+  </si>
+  <si>
+    <t>{.supervisionTime}</t>
   </si>
   <si>
     <t>{.supervisionNature}</t>
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -236,6 +236,82 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,122 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +339,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,13 +393,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,55 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,109 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +659,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -674,32 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,15 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,8 +716,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,7 +932,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,9 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,11 +1276,15 @@
   <sheetPr/>
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="20.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:29">
       <c r="A1" s="2" t="s">
@@ -1477,91 +1478,92 @@
       </c>
       <c r="AC4" s="18"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:28">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:29">
+      <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Y5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="AC5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
